--- a/pball.xlsx
+++ b/pball.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="28520" windowHeight="15540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="28520" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="levelData" sheetId="1" r:id="rId1"/>
     <sheet name="ballData" sheetId="2" r:id="rId2"/>
     <sheet name="propsData" sheetId="3" r:id="rId3"/>
-    <sheet name="map" sheetId="4" r:id="rId4"/>
+    <sheet name="mapData" sheetId="4" r:id="rId4"/>
+    <sheet name="awardBallData" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -51,7 +52,11 @@
           <t xml:space="preserve">
 0，万能球
 1，非万能球
-</t>
+2, 消一行
+3，消一列
+4，消斜行列
+5，消周围8格
+6，消相同</t>
         </r>
       </text>
     </comment>
@@ -99,8 +104,48 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>carlor fang</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>carlor fang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1,消除行
+2，消除列
+4，消除斜
+8,拐弯
+16，大于CountCondition</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="79">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,6 +411,34 @@
   </si>
   <si>
     <t>1;0;0;0;0;0;0;0;1;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;0;1;1;1;0;0;0;0;0;0;1;1;1;0;0;0;0;1;0;0;0;0;0;0;0;0;0;1;0;0;0;0;0;0;0;0;0;0;0;0;0;0;1;0;0;0;0;0;0;0;1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CountCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现形状条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现个数条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShapeCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201,5;301,5;202,5;401,5;402,5;501,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,7 +534,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -469,8 +542,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -484,19 +573,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="23">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -829,7 +933,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -983,7 +1087,7 @@
         <v>41</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="I4" s="1">
         <v>100</v>
@@ -1754,18 +1858,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="18.1640625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1779,7 +1885,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1793,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1807,7 +1913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>100</v>
       </c>
@@ -1819,217 +1925,665 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="17">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
+        <v>101</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>102</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>103</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>104</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>105</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
         <v>200</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="17">
-      <c r="A6" s="1">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
         <v>201</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17">
-      <c r="A7" s="1">
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
         <v>202</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D12" s="1">
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17">
-      <c r="A8" s="1">
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>203</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>204</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>205</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>206</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>207</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
         <v>300</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="17">
-      <c r="A9" s="1">
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
         <v>301</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17">
-      <c r="A10" s="1">
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
         <v>302</v>
       </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D20" s="1">
         <v>301</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17">
-      <c r="A11" s="1">
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>303</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>304</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>305</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>306</v>
+      </c>
+      <c r="B24" s="1">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>307</v>
+      </c>
+      <c r="B25" s="1">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
         <v>400</v>
       </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="17">
-      <c r="A12" s="1">
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
         <v>401</v>
       </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17">
-      <c r="A13" s="1">
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
         <v>402</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
         <v>0</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D28" s="1">
         <v>401</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="17">
-      <c r="A14" s="1">
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>403</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>404</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>405</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>406</v>
+      </c>
+      <c r="B32" s="1">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>407</v>
+      </c>
+      <c r="B33" s="1">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
         <v>500</v>
       </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" ht="17">
-      <c r="A15" s="1">
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
         <v>501</v>
       </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17">
-      <c r="A16" s="1">
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
         <v>502</v>
       </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
         <v>0</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D36" s="1">
         <v>501</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17">
-      <c r="A17" s="1">
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>503</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>504</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>505</v>
+      </c>
+      <c r="B39" s="1">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>506</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>507</v>
+      </c>
+      <c r="B41" s="1">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
         <v>600</v>
       </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" ht="17">
-      <c r="A18" s="1">
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
         <v>601</v>
       </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17">
-      <c r="A19" s="4">
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>602</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>603</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>604</v>
+      </c>
+      <c r="B46" s="1">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>605</v>
+      </c>
+      <c r="B47" s="1">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>606</v>
+      </c>
+      <c r="B48" s="1">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>607</v>
+      </c>
+      <c r="B49" s="1">
+        <v>6</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="4">
         <v>700</v>
       </c>
-      <c r="B19" s="4">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" ht="17">
-      <c r="A20" s="4">
+      <c r="B50" s="4">
+        <v>1</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="4">
         <v>701</v>
       </c>
-      <c r="B20" s="4">
-        <v>1</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="B51" s="4">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4">
         <v>700</v>
       </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="4">
+        <v>702</v>
+      </c>
+      <c r="B52" s="4">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0</v>
+      </c>
+      <c r="D52" s="4">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>703</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>704</v>
+      </c>
+      <c r="B54" s="1">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>705</v>
+      </c>
+      <c r="B55" s="1">
+        <v>4</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>706</v>
+      </c>
+      <c r="B56" s="1">
+        <v>5</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>707</v>
+      </c>
+      <c r="B57" s="1">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2134,8 +2688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2144,42 +2698,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6">
-        <v>100</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="5">
+        <v>100</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>101</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2193,4 +2747,93 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/pball.xlsx
+++ b/pball.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="28520" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="28520" windowHeight="15540" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="levelData" sheetId="1" r:id="rId1"/>
@@ -140,12 +140,44 @@
         </r>
       </text>
     </comment>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>carlor fang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0，万能球
+1，非万能球
+2, 消一行
+3，消一列
+4，消斜行列
+5，消周围8格
+6，消相同</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="94">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,89 +343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>200;300;400;500;600;700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200;300;400;500;600;701</t>
-  </si>
-  <si>
-    <t>200;300;400;500;600;702</t>
-  </si>
-  <si>
-    <t>200;300;400;500;600;703</t>
-  </si>
-  <si>
-    <t>200;300;400;500;600;704</t>
-  </si>
-  <si>
-    <t>200;300;400;500;600;705</t>
-  </si>
-  <si>
-    <t>200;300;400;500;600;706</t>
-  </si>
-  <si>
-    <t>200;300;400;500;600;707</t>
-  </si>
-  <si>
-    <t>200;300;400;500;600;708</t>
-  </si>
-  <si>
-    <t>200;300;400;500;600;709</t>
-  </si>
-  <si>
-    <t>200;300;400;500;600;710</t>
-  </si>
-  <si>
-    <t>200;300;400;500;600;711</t>
-  </si>
-  <si>
-    <t>200;300;400;500;600;712</t>
-  </si>
-  <si>
-    <t>200;300;400;500;600;713</t>
-  </si>
-  <si>
-    <t>200;300;400;500;600;714</t>
-  </si>
-  <si>
-    <t>200;300;400;500;600;715</t>
-  </si>
-  <si>
-    <t>200;300;400;500;600;716</t>
-  </si>
-  <si>
-    <t>200;300;400;500;600;717</t>
-  </si>
-  <si>
-    <t>200;300;400;500;600;718</t>
-  </si>
-  <si>
-    <t>200;300;400;500;600;719</t>
-  </si>
-  <si>
-    <t>200;300;400;500;600;720</t>
-  </si>
-  <si>
-    <t>201,10;301,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401,10;501,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>601,10;701,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202,10;302,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202,10;302,11</t>
-  </si>
-  <si>
     <t>RemoveCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -438,8 +387,132 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>201,5;301,5;202,5;401,5;402,5;501,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>2000;3000;4000;5000;6000;7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000;3000;4000;5000;6000;7001</t>
+  </si>
+  <si>
+    <t>2000;3000;4000;5000;6000;7002</t>
+  </si>
+  <si>
+    <t>2000;3000;4000;5000;6000;7003</t>
+  </si>
+  <si>
+    <t>2000;3000;4000;5000;6000;7004</t>
+  </si>
+  <si>
+    <t>2000;3000;4000;5000;6000;7005</t>
+  </si>
+  <si>
+    <t>2000;3000;4000;5000;6000;7006</t>
+  </si>
+  <si>
+    <t>2000;3000;4000;5000;6000;7007</t>
+  </si>
+  <si>
+    <t>2000;3000;4000;5000;6000;7008</t>
+  </si>
+  <si>
+    <t>2000;3000;4000;5000;6000;7009</t>
+  </si>
+  <si>
+    <t>2000;3000;4000;5000;6000;7010</t>
+  </si>
+  <si>
+    <t>2000;3000;4000;5000;6000;7011</t>
+  </si>
+  <si>
+    <t>2000;3000;4000;5000;6000;7012</t>
+  </si>
+  <si>
+    <t>2000;3000;4000;5000;6000;7013</t>
+  </si>
+  <si>
+    <t>2000;3000;4000;5000;6000;7014</t>
+  </si>
+  <si>
+    <t>2000;3000;4000;5000;6000;7015</t>
+  </si>
+  <si>
+    <t>2000;3000;4000;5000;6000;7016</t>
+  </si>
+  <si>
+    <t>2000;3000;4000;5000;6000;7017</t>
+  </si>
+  <si>
+    <t>2000;3000;4000;5000;6000;7018</t>
+  </si>
+  <si>
+    <t>2000;3000;4000;5000;6000;7019</t>
+  </si>
+  <si>
+    <t>2000;3000;4000;5000;6000;7020</t>
+  </si>
+  <si>
+    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,6</t>
+  </si>
+  <si>
+    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,7</t>
+  </si>
+  <si>
+    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,8</t>
+  </si>
+  <si>
+    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,9</t>
+  </si>
+  <si>
+    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,10</t>
+  </si>
+  <si>
+    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,11</t>
+  </si>
+  <si>
+    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,12</t>
+  </si>
+  <si>
+    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,13</t>
+  </si>
+  <si>
+    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,14</t>
+  </si>
+  <si>
+    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,15</t>
+  </si>
+  <si>
+    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,16</t>
+  </si>
+  <si>
+    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,17</t>
+  </si>
+  <si>
+    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,18</t>
+  </si>
+  <si>
+    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,19</t>
+  </si>
+  <si>
+    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,20</t>
+  </si>
+  <si>
+    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,21</t>
+  </si>
+  <si>
+    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,22</t>
+  </si>
+  <si>
+    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,23</t>
+  </si>
+  <si>
+    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,24</t>
+  </si>
+  <si>
+    <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,25</t>
   </si>
 </sst>
 </file>
@@ -534,8 +607,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -578,7 +667,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="39">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -590,6 +679,14 @@
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -601,6 +698,14 @@
     <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -932,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -942,7 +1047,8 @@
     <col min="3" max="3" width="15" style="3" customWidth="1"/>
     <col min="4" max="4" width="17" style="3" customWidth="1"/>
     <col min="5" max="6" width="17.83203125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="33.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="33.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="48" style="3" customWidth="1"/>
     <col min="9" max="9" width="19" style="3" customWidth="1"/>
     <col min="10" max="10" width="31.33203125" style="3" customWidth="1"/>
     <col min="11" max="11" width="18.33203125" style="3" customWidth="1"/>
@@ -967,7 +1073,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1005,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>30</v>
@@ -1043,7 +1149,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>14</v>
@@ -1084,10 +1190,10 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="I4" s="1">
         <v>100</v>
@@ -1120,10 +1226,10 @@
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="I5" s="2">
         <v>100101</v>
@@ -1156,10 +1262,10 @@
         <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I6" s="2">
         <v>100101</v>
@@ -1192,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I7" s="2">
         <v>100101</v>
@@ -1228,10 +1334,10 @@
         <v>4</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="I8" s="2">
         <v>100101</v>
@@ -1264,10 +1370,10 @@
         <v>4</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="I9" s="2">
         <v>100101</v>
@@ -1300,10 +1406,10 @@
         <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="I10" s="2">
         <v>100101</v>
@@ -1336,10 +1442,10 @@
         <v>4</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="I11" s="2">
         <v>100101</v>
@@ -1372,10 +1478,10 @@
         <v>4</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="I12" s="2">
         <v>100101</v>
@@ -1408,10 +1514,10 @@
         <v>5</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="I13" s="2">
         <v>100101</v>
@@ -1446,10 +1552,10 @@
         <v>5</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="I14" s="2">
         <v>100101</v>
@@ -1484,10 +1590,10 @@
         <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="I15" s="2">
         <v>100101</v>
@@ -1522,10 +1628,10 @@
         <v>5</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="I16" s="2">
         <v>100101</v>
@@ -1560,10 +1666,10 @@
         <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="I17" s="2">
         <v>100101</v>
@@ -1598,10 +1704,10 @@
         <v>5</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="I18" s="2">
         <v>100101</v>
@@ -1636,10 +1742,10 @@
         <v>6</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="I19" s="2">
         <v>100101</v>
@@ -1674,10 +1780,10 @@
         <v>7</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="I20" s="2">
         <v>100101</v>
@@ -1712,10 +1818,10 @@
         <v>7</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="I21" s="2">
         <v>100101</v>
@@ -1750,10 +1856,10 @@
         <v>6</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="I22" s="2">
         <v>100101</v>
@@ -1788,10 +1894,10 @@
         <v>6</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="I23" s="2">
         <v>100101</v>
@@ -1826,10 +1932,10 @@
         <v>6</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="I24" s="2">
         <v>100101</v>
@@ -1860,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1915,7 +2021,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -1927,7 +2033,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>101</v>
+        <v>1020</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1939,7 +2045,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>102</v>
+        <v>1030</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -1951,7 +2057,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>103</v>
+        <v>1040</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -1963,7 +2069,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>104</v>
+        <v>1050</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
@@ -1975,7 +2081,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>105</v>
+        <v>1060</v>
       </c>
       <c r="B9" s="1">
         <v>6</v>
@@ -1987,7 +2093,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -1999,7 +2105,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>201</v>
+        <v>2001</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -2008,12 +2114,12 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>202</v>
+        <v>2002</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -2022,12 +2128,12 @@
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>201</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>203</v>
+        <v>2020</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -2039,7 +2145,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>204</v>
+        <v>2030</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
@@ -2051,7 +2157,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>205</v>
+        <v>2040</v>
       </c>
       <c r="B15" s="1">
         <v>4</v>
@@ -2063,7 +2169,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>206</v>
+        <v>2050</v>
       </c>
       <c r="B16" s="1">
         <v>5</v>
@@ -2075,7 +2181,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>207</v>
+        <v>2060</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
@@ -2087,7 +2193,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -2099,7 +2205,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>301</v>
+        <v>3001</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -2108,12 +2214,12 @@
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>300</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>302</v>
+        <v>3002</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -2122,12 +2228,12 @@
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>301</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>303</v>
+        <v>3020</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -2139,7 +2245,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>304</v>
+        <v>3030</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
@@ -2151,7 +2257,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>305</v>
+        <v>3040</v>
       </c>
       <c r="B23" s="1">
         <v>4</v>
@@ -2163,7 +2269,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>306</v>
+        <v>3050</v>
       </c>
       <c r="B24" s="1">
         <v>5</v>
@@ -2175,7 +2281,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>307</v>
+        <v>3060</v>
       </c>
       <c r="B25" s="1">
         <v>6</v>
@@ -2187,7 +2293,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -2199,7 +2305,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>401</v>
+        <v>4001</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
@@ -2208,12 +2314,12 @@
         <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>400</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>402</v>
+        <v>4002</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
@@ -2222,12 +2328,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="1">
-        <v>401</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>403</v>
+        <v>4020</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
@@ -2239,7 +2345,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>404</v>
+        <v>4030</v>
       </c>
       <c r="B30" s="1">
         <v>3</v>
@@ -2251,7 +2357,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>405</v>
+        <v>4040</v>
       </c>
       <c r="B31" s="1">
         <v>4</v>
@@ -2263,7 +2369,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>406</v>
+        <v>4050</v>
       </c>
       <c r="B32" s="1">
         <v>5</v>
@@ -2275,7 +2381,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>407</v>
+        <v>4060</v>
       </c>
       <c r="B33" s="1">
         <v>6</v>
@@ -2287,7 +2393,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
@@ -2299,7 +2405,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>501</v>
+        <v>5001</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
@@ -2308,12 +2414,12 @@
         <v>1</v>
       </c>
       <c r="D35" s="1">
-        <v>500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>502</v>
+        <v>5002</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
@@ -2322,12 +2428,12 @@
         <v>0</v>
       </c>
       <c r="D36" s="1">
-        <v>501</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>503</v>
+        <v>5020</v>
       </c>
       <c r="B37" s="1">
         <v>2</v>
@@ -2339,7 +2445,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
-        <v>504</v>
+        <v>5030</v>
       </c>
       <c r="B38" s="1">
         <v>3</v>
@@ -2351,7 +2457,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
-        <v>505</v>
+        <v>5040</v>
       </c>
       <c r="B39" s="1">
         <v>4</v>
@@ -2363,7 +2469,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>506</v>
+        <v>5050</v>
       </c>
       <c r="B40" s="1">
         <v>5</v>
@@ -2375,7 +2481,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>507</v>
+        <v>5060</v>
       </c>
       <c r="B41" s="1">
         <v>6</v>
@@ -2387,7 +2493,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1">
-        <v>600</v>
+        <v>6000</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
@@ -2399,7 +2505,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
-        <v>601</v>
+        <v>6001</v>
       </c>
       <c r="B43" s="1">
         <v>1</v>
@@ -2408,12 +2514,12 @@
         <v>1</v>
       </c>
       <c r="D43" s="1">
-        <v>600</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1">
-        <v>602</v>
+        <v>6002</v>
       </c>
       <c r="B44" s="1">
         <v>1</v>
@@ -2422,12 +2528,12 @@
         <v>0</v>
       </c>
       <c r="D44" s="1">
-        <v>601</v>
+        <v>6001</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>603</v>
+        <v>6020</v>
       </c>
       <c r="B45" s="1">
         <v>2</v>
@@ -2439,7 +2545,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
-        <v>604</v>
+        <v>6030</v>
       </c>
       <c r="B46" s="1">
         <v>3</v>
@@ -2451,7 +2557,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1">
-        <v>605</v>
+        <v>6040</v>
       </c>
       <c r="B47" s="1">
         <v>4</v>
@@ -2463,7 +2569,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>606</v>
+        <v>6050</v>
       </c>
       <c r="B48" s="1">
         <v>5</v>
@@ -2475,7 +2581,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>607</v>
+        <v>6060</v>
       </c>
       <c r="B49" s="1">
         <v>6</v>
@@ -2487,7 +2593,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="4">
-        <v>700</v>
+        <v>7000</v>
       </c>
       <c r="B50" s="4">
         <v>1</v>
@@ -2499,7 +2605,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4">
-        <v>701</v>
+        <v>7001</v>
       </c>
       <c r="B51" s="4">
         <v>1</v>
@@ -2508,12 +2614,12 @@
         <v>1</v>
       </c>
       <c r="D51" s="4">
-        <v>700</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="4">
-        <v>702</v>
+        <v>7002</v>
       </c>
       <c r="B52" s="4">
         <v>1</v>
@@ -2522,12 +2628,12 @@
         <v>0</v>
       </c>
       <c r="D52" s="4">
-        <v>701</v>
+        <v>7001</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1">
-        <v>703</v>
+        <v>7020</v>
       </c>
       <c r="B53" s="1">
         <v>2</v>
@@ -2539,7 +2645,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1">
-        <v>704</v>
+        <v>7030</v>
       </c>
       <c r="B54" s="1">
         <v>3</v>
@@ -2551,7 +2657,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1">
-        <v>705</v>
+        <v>7040</v>
       </c>
       <c r="B55" s="1">
         <v>4</v>
@@ -2563,7 +2669,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1">
-        <v>706</v>
+        <v>7050</v>
       </c>
       <c r="B56" s="1">
         <v>5</v>
@@ -2575,7 +2681,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1">
-        <v>707</v>
+        <v>7060</v>
       </c>
       <c r="B57" s="1">
         <v>6</v>
@@ -2726,7 +2832,7 @@
         <v>100</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2734,7 +2840,7 @@
         <v>101</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2751,77 +2857,102 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="25.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>8</v>
       </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>16</v>
       </c>
       <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
         <v>6</v>
       </c>
     </row>

--- a/pball.xlsx
+++ b/pball.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="28520" windowHeight="15540" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="28520" windowHeight="15540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="levelData" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="100">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -513,6 +513,30 @@
   </si>
   <si>
     <t>2001,5;3001,5;2002,5;4001,5;4002,5;5001,25</t>
+  </si>
+  <si>
+    <t>OnPut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uchar[1024]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uchar[1024]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnPick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中道具发生事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放下道具发生事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -648,7 +672,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -666,6 +690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="39">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -2706,77 +2731,111 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="7"/>
+    <col min="3" max="3" width="30.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="7"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17">
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="17">
+      <c r="C2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="17">
+      <c r="C3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="17">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="17">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="17">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>1004</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="17">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>1005</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
       </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2859,7 +2918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
